--- a/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
+++ b/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\Chuyen-De-Phat-Trien-Ung-Dung---TDC---2024\PTUD\CDUD - 1\Tuan 1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01F3DC-8100-4FB5-BA47-ABE9D9270828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A622CDE-8F09-4367-BBDD-6E8ADAF06212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFA8E87A-A9EA-499A-BED0-97BD12D92422}"/>
   </bookViews>
@@ -369,6 +369,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,24 +406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5309,6 +5309,1226 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45551</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45551</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45551</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45554</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45553</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45553</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45553</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45554</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45555</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45555</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45558</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45558</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45559</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45559</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45560</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45560</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45561</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45562</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45562</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45562</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45565</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45567</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45568</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45568</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45568</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45569</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45569</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45572</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45572</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45573</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45573</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45574</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45574</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45576</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45576</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
+        <v>3</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CE8F5A-9343-4CD6-B423-C2A4B069E439}">
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45551</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45551</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45551</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45554</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45553</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45553</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45553</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45554</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45555</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45555</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45558</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45558</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45559</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45559</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45560</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45560</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45561</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45562</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45562</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45562</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45565</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45567</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45568</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45568</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45568</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45569</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45569</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45572</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45572</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45573</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45573</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45574</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45574</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45576</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45576</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
+        <v>3</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D1010B-6E56-4FCF-8FDD-B62EFDD5CC8A}">
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5325,17 +6545,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -5367,7 +6587,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -5397,7 +6617,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5422,7 +6642,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +6667,7 @@
     </row>
     <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -5471,8 +6691,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
@@ -5496,10 +6716,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -5523,8 +6743,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
@@ -5546,8 +6766,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
@@ -5569,8 +6789,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
@@ -5592,8 +6812,8 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
@@ -5615,10 +6835,10 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -5642,8 +6862,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
@@ -5665,8 +6885,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="24" t="s">
         <v>35</v>
       </c>
@@ -5676,31 +6896,31 @@
       <c r="F17" s="26">
         <v>45568</v>
       </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
         <v>1</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="25"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
@@ -5722,10 +6942,10 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -5749,8 +6969,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -5772,8 +6992,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
@@ -5795,8 +7015,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
@@ -5818,8 +7038,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
@@ -5841,11 +7061,11 @@
       <c r="J24" s="6"/>
     </row>
     <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I30" s="10" t="s">
@@ -5865,7 +7085,7 @@
       <c r="J31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="19">
         <v>2</v>
       </c>
     </row>
@@ -5876,7 +7096,7 @@
       <c r="J32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="5">
@@ -5885,28 +7105,28 @@
       <c r="J33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="J17:J18"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5914,12 +7134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CE8F5A-9343-4CD6-B423-C2A4B069E439}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC2297D-CC3C-403C-9B43-4DEBA02B4F12}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5935,17 +7155,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -5977,7 +7197,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -6007,7 +7227,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6032,7 +7252,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
@@ -6057,7 +7277,7 @@
     </row>
     <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -6081,8 +7301,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
@@ -6106,10 +7326,10 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -6133,8 +7353,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
@@ -6156,8 +7376,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
@@ -6179,8 +7399,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
@@ -6202,8 +7422,8 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
@@ -6225,10 +7445,10 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -6252,8 +7472,8 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
@@ -6275,8 +7495,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="24" t="s">
         <v>35</v>
       </c>
@@ -6286,31 +7506,31 @@
       <c r="F17" s="26">
         <v>45568</v>
       </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
         <v>1</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="25"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
@@ -6332,10 +7552,10 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -6359,8 +7579,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -6382,8 +7602,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
@@ -6405,8 +7625,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
@@ -6428,8 +7648,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
@@ -6451,11 +7671,11 @@
       <c r="J24" s="6"/>
     </row>
     <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I30" s="10" t="s">
@@ -6475,7 +7695,7 @@
       <c r="J31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="19">
         <v>2</v>
       </c>
     </row>
@@ -6486,7 +7706,7 @@
       <c r="J32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="5">
@@ -6495,16 +7715,10 @@
       <c r="J33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B2:J2"/>
@@ -6517,1226 +7731,12 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D1010B-6E56-4FCF-8FDD-B62EFDD5CC8A}">
-  <dimension ref="B2:K33"/>
-  <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45551</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45551</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45551</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45553</v>
-      </c>
-      <c r="F8" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="F11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45561</v>
-      </c>
-      <c r="F13" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45565</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45566</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45567</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45568</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="F24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
-        <v>3</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="K31:K33"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC2297D-CC3C-403C-9B43-4DEBA02B4F12}">
-  <dimension ref="B2:K33"/>
-  <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45551</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45551</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45551</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45553</v>
-      </c>
-      <c r="F8" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="F9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="F11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45561</v>
-      </c>
-      <c r="F13" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45565</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45566</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45567</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45568</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="F24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
-        <v>3</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
+++ b/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
@@ -2,33 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\Chuyen-De-Phat-Trien-Ung-Dung---TDC---2024\PTUD\CDUD - 1\Tuan 1\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A622CDE-8F09-4367-BBDD-6E8ADAF06212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E805E5E-0FCB-4E20-A48B-F34B4B5BAA29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFA8E87A-A9EA-499A-BED0-97BD12D92422}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
-    <sheet name="Nhật Tài" sheetId="9" r:id="rId2"/>
-    <sheet name="Quốc Lượng" sheetId="10" r:id="rId3"/>
-    <sheet name="Văn Toàn" sheetId="11" r:id="rId4"/>
+    <sheet name="Nhật Tài" sheetId="2" r:id="rId2"/>
+    <sheet name="Quốc Lượng" sheetId="3" r:id="rId3"/>
+    <sheet name="Văn Toàn" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="72">
+  <si>
+    <t>Bảng kế hoạch Sprint PT UD (4 tuần)</t>
+  </si>
   <si>
     <t>Tuần</t>
   </si>
@@ -45,10 +43,7 @@
     <t>Kết Thúc</t>
   </si>
   <si>
-    <t>Thời Gian Ước Tính (ngày)</t>
-  </si>
-  <si>
-    <t>Thời Gian Thực Tế (ngày)</t>
+    <t>Thời Gian (ngày)</t>
   </si>
   <si>
     <t>Người Làm</t>
@@ -96,6 +91,10 @@
 2. Châu Nhật Tài</t>
   </si>
   <si>
+    <t>Sau khi tổng hợp các chức năng,
+phân chia chức năng cho users/admin</t>
+  </si>
+  <si>
     <t>Báo cáo kế hoạch 4 tuần cho đề tài</t>
   </si>
   <si>
@@ -119,6 +118,9 @@
     <t>1, 2: Châu Nhật Tài
 3, 4: Nguyễn Văn Lượng, Lê Văn Toàn
 5: Lê Văn Toàn</t>
+  </si>
+  <si>
+    <t>Làm song song với Thiet ke DB</t>
   </si>
   <si>
     <t>1. Viết Feature Functions
@@ -183,10 +185,16 @@
     <t>Hoàn thành file SRS</t>
   </si>
   <si>
+    <t>Chuyên Đề Phát Triển Ứng Dụng</t>
+  </si>
+  <si>
     <t>STT</t>
   </si>
   <si>
     <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
   </si>
   <si>
     <t>Châu Nhật Tài (Nhóm Trưởng)</t>
@@ -198,17 +206,77 @@
     <t>Lê Văn Toàn</t>
   </si>
   <si>
-    <t>Nhóm</t>
+    <t>Thời Gian Làm (ngày)</t>
   </si>
   <si>
-    <t>Chuyên Đề Phát Triển Ứng Dụng</t>
+    <t>Tổng hợp lại file, nộp file exel kế hoạch trên link gg drive.</t>
   </si>
   <si>
-    <t>Bảng kế hoạch Sprint PT UD (4 tuần)</t>
+    <t>Châu Nhật Tài</t>
   </si>
   <si>
-    <t>Sau khi tổng hợp các chức năng,
-phân chia chức năng cho users/admin</t>
+    <t>1. Tạo khung SRS cho UD QLST
+2. Phân chia công việc cho 2 thành viên</t>
+  </si>
+  <si>
+    <t>1, 2: Châu Nhật Tài</t>
+  </si>
+  <si>
+    <t>Có thiết kế db</t>
+  </si>
+  <si>
+    <t>1. Tạo file docx với nội dung:
+a. Giới thiệu đề tài
+b. Kế hoạch thực hiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nguyễn Quốc Lượng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Vẽ UI thô (Figma/Draw.io) màn hình chức năng cho UD QLST
+4. Nghĩ ra 2 - 4 Non-feature Functions (Security, Performance,…), các yêu cầu khác của KH (2 - 3 ý tưởng)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 4: Nguyễn Văn Lượng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Viết Feature Functions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Nguyễn Quốc Lượng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Viết Non-feature Functions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Viết Use-cases Diagram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Thiết kế UI hoàn chỉnh cho Feature
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Thiết kế hoàn chỉnh cho Data Tables
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Lê Văn Toàn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 4: Lê Văn Toàn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Lê Văn Toàn
+</t>
   </si>
 </sst>
 </file>
@@ -218,12 +286,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,11 +298,24 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +324,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFFE598"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -256,24 +360,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -283,38 +396,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -322,14 +435,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,94 +450,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,6 +550,65 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ Time line Sprint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -486,6 +638,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sprint!$C$5:$C$24</c:f>
@@ -575,7 +730,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B76-4C38-A11D-181CD5547538}"/>
+              <c16:uniqueId val="{00000000-5E4E-4D56-A2BF-43073482B81B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -584,11 +739,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint!$H$4</c:f>
+              <c:f>Sprint!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời Gian Thực Tế (ngày)</c:v>
+                  <c:v>Thời Gian (ngày)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -663,7 +818,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sprint!$H$5:$H$24</c:f>
+              <c:f>Sprint!$G$5:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -680,7 +835,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -695,7 +850,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -707,7 +862,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -722,20 +877,21 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B76-4C38-A11D-181CD5547538}"/>
+              <c16:uniqueId val="{00000002-5E4E-4D56-A2BF-43073482B81B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -743,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608060800"/>
-        <c:axId val="608061216"/>
+        <c:axId val="1157993088"/>
+        <c:axId val="1157992672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608060800"/>
+        <c:axId val="1157993088"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -790,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608061216"/>
+        <c:crossAx val="1157992672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608061216"/>
+        <c:axId val="1157992672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45576"/>
@@ -820,65 +976,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1"/>
-                  <a:t>Biểu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-                  <a:t> đồ thể hiện tiến độ công việc cho kế hoạch phát triển ứng dụng </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -910,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608060800"/>
+        <c:crossAx val="1157993088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1011,6 +1108,65 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ Sprint Time Line</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1040,22 +1196,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Nhật Tài'!$C$5:$C$24</c:f>
+              <c:f>'Nhật Tài'!$C$5:$C$23</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Lập kế hoạch phát triển ứng dụng QLST
 Trong 4 tuần</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>Viết SRS đặc tả các yêu cầu của đề tài</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>Thiết kế Feature, UI, Data bổ sung cho SRS</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="14">
                   <c:v>Hoàn Thành File SRS QLST</c:v>
                 </c:pt>
               </c:strCache>
@@ -1063,10 +1222,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nhật Tài'!$E$5:$E$24</c:f>
+              <c:f>'Nhật Tài'!$E$5:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45551</c:v>
                 </c:pt>
@@ -1077,51 +1236,48 @@
                   <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45553</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45555</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45558</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45559</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45560</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45561</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45562</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45565</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45567</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>45568</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45569</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>45569</c:v>
+                  <c:v>45572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45572</c:v>
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45573</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45574</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
@@ -1129,7 +1285,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F65C-4B76-B4C1-94302FEEB482}"/>
+              <c16:uniqueId val="{00000000-3A32-4AAF-A1CF-E503138E499D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1138,11 +1294,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nhật Tài'!$H$4</c:f>
+              <c:f>'Nhật Tài'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời Gian Thực Tế (ngày)</c:v>
+                  <c:v>Thời Gian Làm (ngày)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,7 +1328,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1217,79 +1373,77 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Nhật Tài'!$H$5:$H$24</c:f>
+              <c:f>'Nhật Tài'!$G$5:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F65C-4B76-B4C1-94302FEEB482}"/>
+              <c16:uniqueId val="{00000002-3A32-4AAF-A1CF-E503138E499D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1297,11 +1451,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608060800"/>
-        <c:axId val="608061216"/>
+        <c:axId val="1676586160"/>
+        <c:axId val="1676589072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608060800"/>
+        <c:axId val="1676586160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1344,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608061216"/>
+        <c:crossAx val="1676589072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608061216"/>
+        <c:axId val="1676589072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45576"/>
@@ -1374,65 +1528,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1"/>
-                  <a:t>Biểu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-                  <a:t> đồ thể hiện tiến độ công việc cho kế hoạch phát triển ứng dụng </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1464,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608060800"/>
+        <c:crossAx val="1676586160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,6 +1660,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ Sprint Time Line</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1594,22 +1749,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Quốc Lượng'!$C$5:$C$24</c:f>
+              <c:f>'Quốc Lượng'!$C$5:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Lập kế hoạch phát triển ứng dụng QLST
 Trong 4 tuần</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>Viết SRS đặc tả các yêu cầu của đề tài</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>Thiết kế Feature, UI, Data bổ sung cho SRS</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="12">
                   <c:v>Hoàn Thành File SRS QLST</c:v>
                 </c:pt>
               </c:strCache>
@@ -1617,10 +1775,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quốc Lượng'!$E$5:$E$24</c:f>
+              <c:f>'Quốc Lượng'!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45551</c:v>
                 </c:pt>
@@ -1631,51 +1789,45 @@
                   <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45553</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45555</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45558</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45559</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45560</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45561</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45562</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45565</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45567</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45568</c:v>
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45569</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45572</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
@@ -1683,7 +1835,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8EA-49CE-8F07-9D0CCB620F60}"/>
+              <c16:uniqueId val="{00000000-59A3-4D33-A2C7-3B4416AF3909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1692,11 +1844,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Quốc Lượng'!$H$4</c:f>
+              <c:f>'Quốc Lượng'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời Gian Thực Tế (ngày)</c:v>
+                  <c:v>Thời Gian Làm (ngày)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1726,7 +1878,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1771,79 +1923,74 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Quốc Lượng'!$H$5:$H$24</c:f>
+              <c:f>'Quốc Lượng'!$G$5:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8EA-49CE-8F07-9D0CCB620F60}"/>
+              <c16:uniqueId val="{00000002-59A3-4D33-A2C7-3B4416AF3909}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1851,11 +1998,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608060800"/>
-        <c:axId val="608061216"/>
+        <c:axId val="1738369344"/>
+        <c:axId val="1738369760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608060800"/>
+        <c:axId val="1738369344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1898,7 +2045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608061216"/>
+        <c:crossAx val="1738369760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1906,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608061216"/>
+        <c:axId val="1738369760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45576"/>
@@ -1928,65 +2075,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1"/>
-                  <a:t>Biểu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-                  <a:t> đồ thể hiện tiến độ công việc cho kế hoạch phát triển ứng dụng </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2018,7 +2106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608060800"/>
+        <c:crossAx val="1738369344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2119,6 +2207,65 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biểu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đồ Sprint Time Line</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2148,22 +2295,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Văn Toàn'!$C$5:$C$24</c:f>
+              <c:f>'Văn Toàn'!$C$5:$C$21</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Lập kế hoạch phát triển ứng dụng QLST
 Trong 4 tuần</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>Viết SRS đặc tả các yêu cầu của đề tài</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>Thiết kế Feature, UI, Data bổ sung cho SRS</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="12">
                   <c:v>Hoàn Thành File SRS QLST</c:v>
                 </c:pt>
               </c:strCache>
@@ -2171,10 +2321,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Văn Toàn'!$E$5:$E$24</c:f>
+              <c:f>'Văn Toàn'!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45551</c:v>
                 </c:pt>
@@ -2185,51 +2335,45 @@
                   <c:v>45553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45553</c:v>
+                  <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45555</c:v>
+                  <c:v>45558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45558</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45559</c:v>
+                  <c:v>45560</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45560</c:v>
+                  <c:v>45561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45561</c:v>
+                  <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45562</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45565</c:v>
+                  <c:v>45567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45567</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45568</c:v>
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45569</c:v>
+                  <c:v>45574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45572</c:v>
+                  <c:v>45575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>45576</c:v>
                 </c:pt>
               </c:numCache>
@@ -2237,7 +2381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A96-4D4C-B3E0-658851406E55}"/>
+              <c16:uniqueId val="{00000000-3E55-4F0E-9DE6-96728C7F4AA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2246,11 +2390,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Văn Toàn'!$H$4</c:f>
+              <c:f>'Văn Toàn'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thời Gian Thực Tế (ngày)</c:v>
+                  <c:v>Thời Gian Làm (ngày)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2280,7 +2424,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2325,79 +2469,74 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Văn Toàn'!$H$5:$H$24</c:f>
+              <c:f>'Văn Toàn'!$G$5:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1A96-4D4C-B3E0-658851406E55}"/>
+              <c16:uniqueId val="{00000002-3E55-4F0E-9DE6-96728C7F4AA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2405,11 +2544,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608060800"/>
-        <c:axId val="608061216"/>
+        <c:axId val="1738311936"/>
+        <c:axId val="1738325248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608060800"/>
+        <c:axId val="1738311936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2452,7 +2591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608061216"/>
+        <c:crossAx val="1738325248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2460,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608061216"/>
+        <c:axId val="1738325248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45576"/>
@@ -2482,65 +2621,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1"/>
-                  <a:t>Biểu</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-                  <a:t> đồ thể hiện tiến độ công việc cho kế hoạch phát triển ứng dụng </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2572,7 +2652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608060800"/>
+        <c:crossAx val="1738311936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4844,22 +4924,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B9F06A-E5A7-4510-95F0-36E41DFF5660}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38220FDD-46AD-4410-85A8-6C60E4D23A07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4884,29 +4964,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>621505</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A6BE80-9143-4EC2-9047-F515A4D696A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CF29A9-2829-4512-A7AB-E525C3F6BEC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4928,28 +5006,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:colOff>16668</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132DEBBD-EAE3-4B1D-8ACB-7B1430D4CDE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC3BE7B-46E4-4ED2-B6F9-29E2178F766B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4970,29 +5046,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>611980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B35C94-A29C-4925-A793-1C10602A293F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A545CF36-A1E0-4012-91D8-73D9428665C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5010,20 +5084,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -5047,113 +5121,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5296,81 +5276,74 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43F16F-DCFC-4DB2-A4F7-2FC3DC12C6F4}">
-  <dimension ref="B2:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5382,22 +5355,19 @@
       <c r="F5" s="4">
         <v>45551</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5407,22 +5377,19 @@
       <c r="F6" s="4">
         <v>45554</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="2:9">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
@@ -5432,23 +5399,20 @@
       <c r="F7" s="4">
         <v>45553</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
+    <row r="8" spans="2:9" ht="57">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4">
@@ -5457,24 +5421,21 @@
       <c r="F8" s="4">
         <v>45554</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="4">
         <v>45555</v>
@@ -5482,28 +5443,25 @@
       <c r="F9" s="4">
         <v>45555</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="85.5">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="24" t="s">
         <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>45558</v>
@@ -5511,22 +5469,21 @@
       <c r="F10" s="4">
         <v>45558</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.5">
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="4">
         <v>45559</v>
@@ -5534,22 +5491,18 @@
       <c r="F11" s="4">
         <v>45559</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="4">
         <v>45560</v>
@@ -5557,22 +5510,19 @@
       <c r="F12" s="4">
         <v>45560</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" ht="28.5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="4">
         <v>45561</v>
@@ -5580,22 +5530,19 @@
       <c r="F13" s="4">
         <v>45562</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="14"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="4">
         <v>45562</v>
@@ -5603,26 +5550,23 @@
       <c r="F14" s="4">
         <v>45562</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="28.5">
+      <c r="B15" s="16" t="s">
         <v>33</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="4">
         <v>45565</v>
@@ -5630,22 +5574,19 @@
       <c r="F15" s="4">
         <v>45566</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="28.5">
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="4">
         <v>45567</v>
@@ -5653,56 +5594,49 @@
       <c r="F16" s="4">
         <v>45568</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15">
         <v>45568</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="15">
         <v>45568</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
+      <c r="H17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="14"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="4">
         <v>45569</v>
@@ -5710,26 +5644,23 @@
       <c r="F19" s="4">
         <v>45569</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="16" t="s">
         <v>39</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E20" s="4">
         <v>45572</v>
@@ -5737,22 +5668,19 @@
       <c r="F20" s="4">
         <v>45572</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="17"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="4">
         <v>45573</v>
@@ -5760,22 +5688,19 @@
       <c r="F21" s="4">
         <v>45573</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="17"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="4">
         <v>45574</v>
@@ -5783,22 +5708,19 @@
       <c r="F22" s="4">
         <v>45574</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="17"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="4">
         <v>45575</v>
@@ -5806,22 +5728,19 @@
       <c r="F23" s="4">
         <v>45575</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="14"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E24" s="4">
         <v>45576</v>
@@ -5829,158 +5748,164 @@
       <c r="F24" s="4">
         <v>45576</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="G25" s="10">
+        <f>SUM(G5:G24)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="G26" s="10">
+        <f>SUM('Nhật Tài'!G24,'Quốc Lượng'!G22,'Văn Toàn'!G22)</f>
+        <v>22.949999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="25.5">
+      <c r="H28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="H30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="20" t="s">
+      <c r="I31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="19">
+      <c r="J31" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
+    <row r="32" spans="2:10">
+      <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
+      <c r="I32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="I33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CE8F5A-9343-4CD6-B423-C2A4B069E439}">
-  <dimension ref="B2:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5992,22 +5917,19 @@
       <c r="F5" s="4">
         <v>45551</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6017,580 +5939,506 @@
       <c r="F6" s="4">
         <v>45554</v>
       </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+    <row r="7" spans="2:9">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E7" s="4">
         <v>45553</v>
       </c>
       <c r="F7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="G7" s="5">
+        <v>45554</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
+      <c r="H7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="4">
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="F8" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>45555</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="28.5">
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="4">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="F9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>45558</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="28.5">
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="4">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="F10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>45559</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.5">
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="4">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="F11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>45560</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="4">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="F12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
+        <v>45562</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="4">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="F13" s="4">
         <v>45562</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="28.5">
+      <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45565</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="28.5">
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45567</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45568</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45568</v>
+      </c>
+      <c r="F16" s="15">
+        <v>45568</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="14"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45569</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45569</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45572</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45572</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45573</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45573</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="17"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45574</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45574</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="17"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="14"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45576</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45576</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="G24" s="10">
+        <f>SUM(G5:G23)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="25.5">
+      <c r="H27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="H29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
+    </row>
+    <row r="31" spans="2:10">
+      <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45565</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45566</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45567</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45568</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="F24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
+      <c r="I31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="H32" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="I32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+  <mergeCells count="17">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D1010B-6E56-4FCF-8FDD-B62EFDD5CC8A}">
-  <dimension ref="B2:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -6602,22 +6450,19 @@
       <c r="F5" s="4">
         <v>45551</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6627,580 +6472,476 @@
       <c r="F6" s="4">
         <v>45554</v>
       </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+    <row r="7" spans="2:9" ht="42.75">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="4">
         <v>45553</v>
       </c>
       <c r="F7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>45554</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="4">
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="F8" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>45555</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="57">
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="4">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="F9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>45558</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="28.5">
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="4">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="F10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>45559</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" ht="28.5">
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="4">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="F11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>45560</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="4">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="F12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>45562</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="4">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="F13" s="4">
         <v>45562</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="28.5">
+      <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45565</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="28.5">
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45567</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45568</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="14"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45569</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45569</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45572</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45572</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45573</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45573</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45574</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45574</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="14"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45576</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45576</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="G22" s="10">
+        <f>SUM(G5:G21)</f>
+        <v>6.6249999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="G24" s="10">
+        <f>SUM(G22+6.4+6.525)</f>
+        <v>19.549999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="25.5">
+      <c r="H25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="H27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
+    </row>
+    <row r="29" spans="2:10">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45565</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45566</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45567</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45568</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="F24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
+      <c r="I29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="I30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+  <mergeCells count="11">
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC2297D-CC3C-403C-9B43-4DEBA02B4F12}">
-  <dimension ref="B2:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="25.5">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -7212,22 +6953,19 @@
       <c r="F5" s="4">
         <v>45551</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -7237,509 +6975,401 @@
       <c r="F6" s="4">
         <v>45554</v>
       </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+    <row r="7" spans="2:9" ht="42.75">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="4">
         <v>45553</v>
       </c>
       <c r="F7" s="4">
-        <v>45553</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>45554</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="4">
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="F8" s="4">
-        <v>45554</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>45555</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="57">
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="4">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="F9" s="4">
-        <v>45555</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>45558</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="28.5">
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="4">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="F10" s="4">
-        <v>45558</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>45559</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" ht="28.5">
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="4">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="F11" s="4">
-        <v>45559</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>45560</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="4">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="F12" s="4">
-        <v>45560</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>45562</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="4">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="F13" s="4">
         <v>45562</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="28.5">
+      <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45565</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45566</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="28.5">
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45567</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45568</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="14"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45569</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45569</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45572</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45572</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45573</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45573</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45574</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45574</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45575</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45575</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="14"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45576</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45576</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="G22" s="10">
+        <f>SUM(G5:G21)</f>
+        <v>6.9249999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="25.5">
+      <c r="H25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="H27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
+    </row>
+    <row r="29" spans="2:10">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45562</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45565</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45566</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45567</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45568</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45568</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="F19" s="4">
-        <v>45569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45572</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45573</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45574</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45575</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="F24" s="4">
-        <v>45576</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
+      <c r="I29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="19"/>
+      <c r="I30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+  <mergeCells count="11">
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
+++ b/PTUD/CDUD - 1/Tuan 1/files/Nhom 2 - Lap Ke Hoach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\Chuyen-De-Phat-Trien-Ung-Dung---TDC---2024\PTUD\CDUD - 1\Tuan 1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E805E5E-0FCB-4E20-A48B-F34B4B5BAA29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374ED765-B52E-4DDD-8CF5-C946330BFF43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -486,28 +486,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,7 +507,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5283,41 +5283,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.73046875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -5340,10 +5340,10 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5366,8 +5366,8 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5388,8 +5388,8 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
@@ -5409,9 +5409,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="57">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+    <row r="8" spans="2:9" ht="60">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
@@ -5432,8 +5432,8 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
@@ -5453,11 +5453,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="85.5">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:9" ht="90">
+      <c r="B10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -5479,9 +5479,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="28.5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="2:9" ht="30">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
@@ -5498,9 +5498,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="28.5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="2:9" ht="30">
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
@@ -5518,9 +5518,9 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9" ht="28.5">
-      <c r="B13" s="17"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="2:9" ht="30">
+      <c r="B13" s="18"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
@@ -5539,8 +5539,8 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="14"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="28.5">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:9" ht="30">
+      <c r="B15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5582,9 +5582,9 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:9" ht="28.5">
-      <c r="B16" s="17"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="2:9" ht="30">
+      <c r="B16" s="18"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
@@ -5603,38 +5603,38 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="17"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="27">
         <v>45568</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="27">
         <v>45568</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="24">
         <v>1</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="17"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="14"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
@@ -5653,10 +5653,10 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -5677,8 +5677,8 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="17"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
@@ -5697,8 +5697,8 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="17"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8" t="s">
         <v>43</v>
       </c>
@@ -5717,8 +5717,8 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="17"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="8" t="s">
         <v>44</v>
       </c>
@@ -5737,8 +5737,8 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="14"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
@@ -5768,12 +5768,12 @@
         <v>22.949999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="25.5">
-      <c r="H28" s="19" t="s">
+    <row r="28" spans="2:10" ht="26.25">
+      <c r="H28" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="30" spans="2:10">
       <c r="H30" s="11" t="s">
@@ -5793,7 +5793,7 @@
       <c r="I31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="24">
         <v>2</v>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="I32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="8:10">
       <c r="H33" s="2">
@@ -5813,20 +5813,10 @@
       <c r="I33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="14"/>
+      <c r="J33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="J31:J33"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="B20:B24"/>
@@ -5834,6 +5824,16 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5845,41 +5845,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -5902,10 +5902,10 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5928,8 +5928,8 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5950,8 +5950,8 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>54</v>
       </c>
@@ -5970,8 +5970,8 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
@@ -5991,11 +5991,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="28.5">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:9" ht="30">
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -6015,9 +6015,9 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="28.5">
-      <c r="B10" s="17"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="2:9" ht="30">
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
@@ -6037,9 +6037,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="28.5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="2:9" ht="30">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
@@ -6057,9 +6057,9 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="28.5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="2:9" ht="30">
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
@@ -6078,8 +6078,8 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="14"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
@@ -6097,11 +6097,11 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="28.5">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:9" ht="30">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -6121,9 +6121,9 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="28.5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="2:9" ht="30">
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
@@ -6142,38 +6142,38 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="17"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="27">
         <v>45568</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="27">
         <v>45568</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="17"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="14"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="8" t="s">
         <v>32</v>
       </c>
@@ -6192,10 +6192,10 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -6216,8 +6216,8 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="17"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>42</v>
       </c>
@@ -6236,8 +6236,8 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="17"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
         <v>43</v>
       </c>
@@ -6256,8 +6256,8 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="17"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8" t="s">
         <v>44</v>
       </c>
@@ -6276,8 +6276,8 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="14"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
@@ -6301,12 +6301,12 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="25.5">
-      <c r="H27" s="19" t="s">
+    <row r="27" spans="2:10" ht="26.25">
+      <c r="H27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="29" spans="2:10">
       <c r="H29" s="11" t="s">
@@ -6326,7 +6326,7 @@
       <c r="I30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="24">
         <v>2</v>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       <c r="I31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="2:10">
       <c r="H32" s="2">
@@ -6346,20 +6346,10 @@
       <c r="I32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="14"/>
+      <c r="J32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="J30:J32"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B19:B23"/>
@@ -6367,6 +6357,16 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6382,37 +6382,37 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.73046875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6435,10 +6435,10 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -6461,8 +6461,8 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6482,9 +6482,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="42.75">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+    <row r="7" spans="2:9" ht="45">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
@@ -6505,8 +6505,8 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
@@ -6526,11 +6526,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="57">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:9" ht="60">
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -6550,9 +6550,9 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="28.5">
-      <c r="B10" s="17"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="2:9" ht="45">
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
@@ -6570,9 +6570,9 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="28.5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="2:9" ht="45">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
@@ -6590,9 +6590,9 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="28.5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="2:9" ht="45">
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
@@ -6611,8 +6611,8 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="14"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
@@ -6630,11 +6630,11 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="28.5">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:9" ht="45">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -6654,9 +6654,9 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="28.5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="2:9" ht="45">
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>68</v>
       </c>
@@ -6675,8 +6675,8 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="14"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
@@ -6695,10 +6695,10 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -6719,8 +6719,8 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="17"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
@@ -6739,8 +6739,8 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="17"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
@@ -6759,8 +6759,8 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="17"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>44</v>
       </c>
@@ -6779,8 +6779,8 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="14"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
@@ -6810,12 +6810,12 @@
         <v>19.549999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="25.5">
-      <c r="H25" s="19" t="s">
+    <row r="25" spans="2:10" ht="26.25">
+      <c r="H25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="27" spans="2:10">
       <c r="H27" s="11" t="s">
@@ -6835,7 +6835,7 @@
       <c r="I28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="24">
         <v>2</v>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       <c r="I29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10">
       <c r="H30" s="2">
@@ -6855,7 +6855,7 @@
       <c r="I30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6881,41 +6881,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="8.73046875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.5">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6938,10 +6938,10 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -6964,8 +6964,8 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -6985,9 +6985,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="42.75">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+    <row r="7" spans="2:9" ht="45">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
@@ -7008,8 +7008,8 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
@@ -7029,11 +7029,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="57">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:9" ht="60">
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -7053,9 +7053,9 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="28.5">
-      <c r="B10" s="17"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="2:9" ht="30">
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
@@ -7073,9 +7073,9 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="28.5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="2:9" ht="30">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
@@ -7093,9 +7093,9 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="28.5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="2:9" ht="30">
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
@@ -7114,8 +7114,8 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="14"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
@@ -7133,11 +7133,11 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:9" ht="28.5">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:9" ht="30">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -7157,9 +7157,9 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:9" ht="28.5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="2:9" ht="30">
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>68</v>
       </c>
@@ -7178,8 +7178,8 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="14"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
@@ -7198,10 +7198,10 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -7222,8 +7222,8 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="17"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
@@ -7242,8 +7242,8 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="17"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
@@ -7262,8 +7262,8 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="17"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>44</v>
       </c>
@@ -7282,8 +7282,8 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="14"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
@@ -7307,12 +7307,12 @@
         <v>6.9249999999999989</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="25.5">
-      <c r="H25" s="19" t="s">
+    <row r="25" spans="2:10" ht="26.25">
+      <c r="H25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="27" spans="2:10">
       <c r="H27" s="11" t="s">
@@ -7332,7 +7332,7 @@
       <c r="I28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="24">
         <v>2</v>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       <c r="I29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10">
       <c r="H30" s="2">
@@ -7352,7 +7352,7 @@
       <c r="I30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
